--- a/pred_ohlcv/54_21/2020-01-16 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WAVES ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-19248.01675783999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27143.09575783999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-28409.75535783999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-28415.68535783999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-28362.17935783999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-28362.17935783999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-28346.53806482999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-34155.84786482999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-34121.21786483</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-34121.21786483</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-30771.73666482999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-30780.01026482999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-9326.203960179995</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-35980.68118649998</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-35980.68118649998</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-27644.43448649998</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-30717.85426336998</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-30714.17536336998</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-34040.65602982999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-33531.65162982999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-33539.51512830999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-35982.25442830999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-35435.41502831</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-35462.61502830999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-34900.61502830999</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-35195.55702831</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-32833.10712831</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33866.24132831</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-33034.04402831</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33301.26392830999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-33335.02362830999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-31776.83542830999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-32609.77792831</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-32601.39992830999</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-32486.36542830999</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-32529.87792830999</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-32035.09772830999</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-31946.56862830999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-31982.27862830999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-30923.69462830999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31123.42552830999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-31304.11462830999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-31360.60662830999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-31900.53552830999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-39170.14092830999</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-36905.32372830999</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-36667.38752830999</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-37193.38752830999</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-37193.38752830999</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-37193.38752830999</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-38083.04072830999</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-38083.04072830999</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-38428.04072830999</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-38521.34602830999</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-38578.92002830999</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-38023.04982831</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-37945.74852831</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-37747.81052830999</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-37967.92052830999</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-38616.23042830999</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-37816.23042830999</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-38061.82052831</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-38637.02122831</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-37923.80742831001</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-37343.80742831001</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-37334.77490799001</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-37342.60160799001</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-37377.80160799</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-37349.49160799001</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-37308.59160799001</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-37147.43370799001</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-38009.60720799</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-37340.46100799</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-37296.69480799</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-37096.69480799</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-36884.09780799</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-36846.24130799</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-36706.53220799</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-36896.13870799</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-37082.14280799</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-37104.89300799</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-37303.02580799</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-38403.67120799</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-37511.21900799</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-39415.55700799001</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-38030.65960799</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-37649.24270799001</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-37583.81320799001</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-41374.46410799001</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-41733.46410799001</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-41448.88830799001</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-40010.57860799001</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-41766.97190799002</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-40313.41510799002</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-33180.56900799002</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-33487.54197957002</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-31036.09247957002</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-29987.62887957002</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-32033.12227957002</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-30617.47667957002</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-30386.20547957002</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-10753.76836447002</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-12721.49366447002</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-14626.61336447002</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-18378.49816447002</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-19164.41966447002</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WAVES ohlcv.xlsx
@@ -3304,7 +3304,7 @@
         <v>-30717.85426336998</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-30714.17536336998</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-34040.65602982999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-33531.65162982999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-33539.51512830999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-35982.25442830999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-35435.41502831</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-35462.61502830999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-34900.61502830999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-35195.55702831</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-32833.10712831</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33301.26392830999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-33335.02362830999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-31776.83542830999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-32609.77792831</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-32601.39992830999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-32486.36542830999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-32529.87792830999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-32035.09772830999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-31946.56862830999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-31982.27862830999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-30923.69462830999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31123.42552830999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-31304.11462830999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-31360.60662830999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-31900.53552830999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-38578.92002830999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-38023.04982831</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-37945.74852831</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-37747.81052830999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-37967.92052830999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-38616.23042830999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-37816.23042830999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-38061.82052831</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-38637.02122831</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-37923.80742831001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-37343.80742831001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-37334.77490799001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-37342.60160799001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-37377.80160799</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-37349.49160799001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-37308.59160799001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-37147.43370799001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-38009.60720799</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-37340.46100799</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-37296.69480799</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-37096.69480799</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-36884.09780799</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-36846.24130799</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-36706.53220799</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-36896.13870799</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-37082.14280799</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-37104.89300799</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-37303.02580799</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-38403.67120799</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-37511.21900799</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-39415.55700799001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-38030.65960799</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-37649.24270799001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-37583.81320799001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-41374.46410799001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-41733.46410799001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-41448.88830799001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-40010.57860799001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-41766.97190799002</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-40313.41510799002</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-33438.38100799002</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-33180.56900799002</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-10639.99036447002</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-10753.76836447002</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-12721.49366447002</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-14626.61336447002</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-18378.49816447002</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-19164.41966447002</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
